--- a/DataFileSamples/Isotope/Sm-Nd.xlsx
+++ b/DataFileSamples/Isotope/Sm-Nd.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2080" windowWidth="27300" windowHeight="16440"/>
+    <workbookView xWindow="4640" yWindow="2720" windowWidth="27300" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
   <si>
     <r>
       <t>147</t>
@@ -172,6 +174,68 @@
     <t>Unknown</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambda</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000569／2014／030（01）025770 </t>
+  </si>
+  <si>
+    <t>Sm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17pl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17ap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17py</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>56--5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18pl</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +245,7 @@
     <numFmt numFmtId="176" formatCode=".0000"/>
     <numFmt numFmtId="177" formatCode=".00000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +300,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -370,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,6 +476,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -770,10 +852,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.34656949384015445</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.51376367485203067</v>
+      </c>
+      <c r="J2" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.36839101895695231</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.51397148746573962</v>
+      </c>
+      <c r="J3" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.3483891910288438</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.51371875799065914</v>
+      </c>
+      <c r="J4" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.40323710907468224</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.51424659967552122</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.17144023725461052</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.51262924362149886</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.32076209232988367</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.51366253490948866</v>
+      </c>
+      <c r="J7" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.4247007865877146</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.51448961767807322</v>
+      </c>
+      <c r="J8" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickTop="1"/>
+    <row r="13" spans="1:10" ht="17" thickBot="1">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" thickTop="1" thickBot="1">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.16613</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.51177499999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.13</v>
+      </c>
+      <c r="N2" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7">
+        <v>121.1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>406.3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.18023</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.511876</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+      <c r="N3" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.22753999999999999</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.51219199999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.08</v>
+      </c>
+      <c r="N4" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>7.3079999999999998</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.18551999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.51196799999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9.2590000000000003</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.51185099999999994</v>
+      </c>
+      <c r="M6">
+        <v>0.08</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6.54E-12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7">
+        <v>0.16613</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.51177499999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7">
+        <v>0.18023</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.511876</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
+        <v>0.22753999999999999</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.51219199999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7">
+        <v>0.18551999999999999</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.51196799999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.51185099999999994</v>
+      </c>
+      <c r="C6">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1349,66 +2084,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E21:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="21" spans="5:11">
-      <c r="E21" s="7">
-        <v>0.34656949384015445</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.36839101895695231</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.3483891910288438</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.40323710907468224</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0.17144023725461052</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0.32076209232988367</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0.4247007865877146</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="E22" s="7">
-        <v>0.51376367485203067</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.51397148746573962</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.51371875799065914</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.51424659967552122</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0.51262924362149886</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0.51366253490948866</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0.51448961767807322</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>